--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st07.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st07.xlsx
@@ -39,7 +39,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">기념일 파티가 진행되는 동안, 어린 오퍼레이터들들은 각자 아는 옛날 이야기들을 서로에게 들려주었다.
+    <t xml:space="preserve">기념일 파티가 진행되는 동안, 어린 오퍼레이터들은 각자 아는 옛날 이야기들을 서로에게 들려주었다.
 </t>
   </si>
 </sst>
